--- a/02-Avancado1-Funcoes/Aula-111-Funcoes-SE-E-OU-NAO-EXATO.xlsx
+++ b/02-Avancado1-Funcoes/Aula-111-Funcoes-SE-E-OU-NAO-EXATO.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaamonde\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Downloads\msexcel\02-Avancado1-Funcoes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA871D7-028F-4382-AC96-794760A8BB6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975BB04D-F83B-429C-857B-287F75F73B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Funções de Comparação" sheetId="1" r:id="rId1"/>
     <sheet name="Tabela Verdade" sheetId="3" r:id="rId2"/>
-    <sheet name="Funções E, OU, SE SE encadeado" sheetId="2" r:id="rId3"/>
+    <sheet name="Funções E, OU, SE SE Encadeado" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,29 +29,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Robson Silva Vaamonde</author>
-  </authors>
-  <commentList>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Vaamonde:
-Utilizar as comparações lógicas para descobrir se é verdadeiro ou falso</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Robson Silva Vaamonde</author>
@@ -114,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
   <si>
     <t>Prof. Robson Vaamonde
 http://facebook.com/ProcedimentosEmTI
@@ -125,12 +102,6 @@
   </si>
   <si>
     <t>Segundo</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Fórmula</t>
   </si>
   <si>
     <t>Maior</t>
@@ -386,12 +357,128 @@
   <si>
     <t>Operador de Comparação/Relacionais</t>
   </si>
+  <si>
+    <t>Explicação</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Robson Vaamonde
+LinkedIn: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.linkedin.com/in/robson-vaamonde-0b029028/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="63"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Instagram: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.instagram.com/procedimentoem/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="63"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+YouTUBE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.youtube.com/boraparapratica</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DICA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> operadores de comparação/relacionais são utilizados em Funções de Lógica (SE, E e OU).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CUIDADO!!!! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Alterar a ordem das Funções de Comparação altera o resultado final.</t>
+    </r>
+  </si>
+  <si>
+    <t>Cálculo</t>
+  </si>
+  <si>
+    <t>A ordem em que o Excel efetua operações em fórmulas</t>
+  </si>
+  <si>
+    <t>https://support.microsoft.com/pt-br/office/a-ordem-em-que-o-excel-efetua-opera%C3%A7%C3%B5es-em-f%C3%B3rmulas-28eaf0d7-7058-4eff-a8ea-0a835fafadb8</t>
+  </si>
+  <si>
+    <t>Operadores de cálculo e precedência no Excel</t>
+  </si>
+  <si>
+    <t>https://support.microsoft.com/pt-br/office/operadores-de-c%C3%A1lculo-e-preced%C3%AAncia-no-excel-48be406d-4975-4d31-b2b8-7af9e0e2878a</t>
+  </si>
+  <si>
+    <t>Operadores de cálculo e precedência</t>
+  </si>
+  <si>
+    <t>https://support.microsoft.com/pt-br/office/operadores-de-c%C3%A1lculo-e-preced%C3%AAncia-36de9366-46fe-43a3-bfa8-cf6d8068eacc</t>
+  </si>
+  <si>
+    <t>Usando caracteres curinga em pesquisas</t>
+  </si>
+  <si>
+    <t>https://support.microsoft.com/pt-br/office/usando-caracteres-curinga-em-pesquisas-ef94362e-9999-4350-ad74-4d2371110adb</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="63"/>
@@ -439,9 +526,110 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color indexed="63"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.5"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -467,12 +655,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -508,13 +696,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -523,12 +738,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -554,22 +763,30 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -578,8 +795,39 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -614,23 +862,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>14605</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>612912</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1270</xdr:rowOff>
+      <xdr:rowOff>2957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>872490</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>12065</xdr:rowOff>
+      <xdr:colOff>1113675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180356</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1" descr="unnamed">
+        <xdr:cNvPr id="4" name="Imagem 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76EF3565-F4C5-4C15-826D-41D480F7CCB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -639,20 +887,12 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="100000"/>
-              </a:srgbClr>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="100000"/>
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
         </a:blip>
         <a:stretch>
           <a:fillRect/>
@@ -660,8 +900,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="885190" y="1270"/>
-          <a:ext cx="857885" cy="496570"/>
+          <a:off x="612912" y="185174"/>
+          <a:ext cx="1113676" cy="906269"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -672,23 +912,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1010920</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>635</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>909380</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>179788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>159385</xdr:rowOff>
+      <xdr:colOff>402589</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>173935</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2" descr="unnamed">
+        <xdr:cNvPr id="5" name="Imagem 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26083FD7-4ED0-43FC-A298-2DF4FEA481D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -697,20 +937,12 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="100000"/>
-              </a:srgbClr>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="100000"/>
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
         </a:blip>
         <a:stretch>
           <a:fillRect/>
@@ -718,8 +950,58 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10330180" y="635"/>
-          <a:ext cx="1656080" cy="482600"/>
+          <a:off x="5961771" y="179788"/>
+          <a:ext cx="2027688" cy="905234"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>132521</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>300952</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>30648</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BADC99-2F66-41BE-A1BF-171898C76850}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7719391" y="0"/>
+          <a:ext cx="4458822" cy="4627496"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -735,23 +1017,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>8619</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>612912</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>10978</xdr:rowOff>
+      <xdr:rowOff>2957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>826409</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>185058</xdr:rowOff>
+      <xdr:colOff>1113675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142256</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1" descr="unnamed">
+        <xdr:cNvPr id="4" name="Imagem 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B029940C-9AF0-4A39-BB3E-CFA58B44499F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -760,20 +1042,12 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="100000"/>
-              </a:srgbClr>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="100000"/>
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
         </a:blip>
         <a:stretch>
           <a:fillRect/>
@@ -781,8 +1055,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="607333" y="201478"/>
-          <a:ext cx="817790" cy="555080"/>
+          <a:off x="612912" y="183932"/>
+          <a:ext cx="1110363" cy="901299"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -793,23 +1067,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>990599</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>16147</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>68115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1693272</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>12972</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>224334</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>231413</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2" descr="unnamed">
+        <xdr:cNvPr id="5" name="Imagem 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89C97580-015B-4E5C-B458-7EF95EEBE6E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -818,20 +1092,12 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="100000"/>
-              </a:srgbClr>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="100000"/>
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
         </a:blip>
         <a:stretch>
           <a:fillRect/>
@@ -839,8 +1105,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4996542" y="206647"/>
-          <a:ext cx="702673" cy="568325"/>
+          <a:off x="7107856" y="2051943"/>
+          <a:ext cx="2017662" cy="866177"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1301,29 +1567,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="28" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" hidden="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="27" customWidth="1"/>
+    <col min="8" max="15" width="9.140625" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7"/>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2"/>
-      <c r="B2" s="16" t="s">
-        <v>0</v>
+    <row r="1" spans="1:7" s="16" customFormat="1" ht="14.25">
+      <c r="A1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" s="16" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B2" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -1331,8 +1600,7 @@
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:7" s="16" customFormat="1" ht="14.25" customHeight="1">
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -1340,8 +1608,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:7" s="16" customFormat="1" ht="14.25" customHeight="1">
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -1349,309 +1616,407 @@
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7">
-      <c r="B5" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22" t="s">
+    <row r="5" spans="1:7" s="16" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" s="16" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" s="16" customFormat="1" ht="14.25"/>
+    <row r="8" spans="1:7" ht="18.75">
+      <c r="B8" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="1:7" ht="21">
+      <c r="B9" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E10" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F10" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="5" t="s">
+      <c r="D11" s="4">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4">
+        <v>10</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D12" s="4">
         <v>10</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E12" s="4">
         <v>10</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="5" t="s">
+      <c r="F12" s="25"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D14" s="4">
         <v>10</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E14" s="4">
         <v>10</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="5" t="s">
+      <c r="F14" s="25"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D15" s="4">
         <v>10</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E15" s="4">
         <v>10</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="B9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3">
-        <v>10</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="F15" s="25"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" s="5" t="s">
+      <c r="D16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7"/>
-    <row r="13" spans="1:7" hidden="1"/>
-    <row r="14" spans="1:7" hidden="1"/>
-    <row r="15" spans="1:7" hidden="1"/>
-    <row r="16" spans="1:7" hidden="1"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="2:7"/>
+    <row r="18" spans="2:7" s="29" customFormat="1" ht="21">
+      <c r="B18" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="29" customFormat="1">
+      <c r="B19" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" s="29" customFormat="1"/>
+    <row r="21" spans="2:7" ht="21">
+      <c r="B21" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="2:7" ht="21">
+      <c r="B24" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="2:7" ht="21">
+      <c r="B27" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="2:7" s="29" customFormat="1"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B2:G4"/>
+  <mergeCells count="4">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B2:G6"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B22" r:id="rId1" xr:uid="{8B62CBC2-99A3-4B0F-B421-0D7AE9AB0F72}"/>
+    <hyperlink ref="B28" r:id="rId2" xr:uid="{38A14CB6-5316-4992-AEA2-D3FD2FE7BAAA}"/>
+    <hyperlink ref="B19" r:id="rId3" xr:uid="{34D40A41-F165-4364-977F-0566EA79193C}"/>
+    <hyperlink ref="B25" r:id="rId4" xr:uid="{F54976CD-198B-4CD7-B834-4D2CB29626B0}"/>
+  </hyperlinks>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="9" hidden="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4"/>
-    <row r="2" spans="2:4">
-      <c r="B2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-    </row>
-    <row r="5" spans="2:4" ht="27.75" customHeight="1">
-      <c r="B5" s="18" t="s">
+    <row r="1" spans="1:4" s="16" customFormat="1" ht="14.25">
+      <c r="A1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" s="16" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" s="16" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" spans="1:4" s="16" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="1:4" s="16" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+    </row>
+    <row r="6" spans="1:4" s="16" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="1:4" s="16" customFormat="1" ht="14.25"/>
+    <row r="8" spans="1:4" ht="27.75" customHeight="1">
+      <c r="B8" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+    </row>
+    <row r="9" spans="1:4" ht="14.1" customHeight="1">
+      <c r="B9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-    </row>
-    <row r="6" spans="2:4" ht="14.1" customHeight="1">
-      <c r="B6" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="14" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="14.1" customHeight="1">
+      <c r="B10" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="C10" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.1" customHeight="1">
+      <c r="B11" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="36" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" ht="14.1" customHeight="1">
-      <c r="B7" s="15" t="s">
+      <c r="D11" s="36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.1" customHeight="1">
+      <c r="B12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.1" customHeight="1">
+      <c r="B13" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27.75" customHeight="1">
+      <c r="B15" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="14.1" customHeight="1">
-      <c r="B8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="14.1" customHeight="1">
-      <c r="B9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="14.1" customHeight="1">
-      <c r="B10" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4"/>
-    <row r="12" spans="2:4" ht="27.75" customHeight="1">
-      <c r="B12" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-    </row>
-    <row r="13" spans="2:4" ht="14.1" customHeight="1">
-      <c r="B13" s="14" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+    </row>
+    <row r="16" spans="1:4" ht="14.1" customHeight="1">
+      <c r="B16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="14" t="s">
+    </row>
+    <row r="17" spans="2:4" ht="14.1" customHeight="1">
+      <c r="B17" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="C17" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="14.1" customHeight="1">
+      <c r="B18" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="36" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" ht="14.1" customHeight="1">
-      <c r="B14" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="14.1" customHeight="1">
-      <c r="B15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="14.1" customHeight="1">
-      <c r="B16" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="14.1" customHeight="1">
-      <c r="B17" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4"/>
-    <row r="19" spans="2:4" hidden="1"/>
-    <row r="20" spans="2:4" hidden="1"/>
-    <row r="21" spans="2:4" hidden="1"/>
-    <row r="22" spans="2:4" hidden="1"/>
-    <row r="23" spans="2:4" hidden="1"/>
-    <row r="24" spans="2:4" hidden="1"/>
+      <c r="D18" s="35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="14.1" customHeight="1">
+      <c r="B19" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="14.1" customHeight="1">
+      <c r="B20" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B2:D6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="597" r:id="rId1"/>
@@ -1661,7 +2026,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
@@ -1681,233 +2046,232 @@
     <row r="1" spans="1:8"/>
     <row r="2" spans="1:8">
       <c r="A2" s="2"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="E5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="F5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="13" t="s">
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" s="8" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="8" t="s">
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="8" t="s">
+      <c r="C11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" s="8" t="s">
+      <c r="C16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="B16" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="8" t="s">
+      <c r="C18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="2:7" hidden="1"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:G4"/>
